--- a/gd/MT/Payment.xlsx
+++ b/gd/MT/Payment.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/gd/MT/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="1020" windowWidth="31060" windowHeight="19200" tabRatio="500"/>
+    <workbookView xWindow="3720" yWindow="1200" windowWidth="31060" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>SW</t>
   </si>
@@ -67,6 +67,15 @@
   <si>
     <t>Giveaway</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>First time</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
 </sst>
 </file>
 
@@ -75,7 +84,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -132,10 +141,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -420,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H63"/>
+  <dimension ref="B1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,10 +444,15 @@
     <col min="6" max="6" width="18.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="6"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.5" style="4" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -461,10 +475,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>99.99</v>
       </c>
@@ -491,8 +514,27 @@
         <f>(D3-C3)/C3</f>
         <v>0.32013201320132012</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J3" s="4">
+        <v>12000</v>
+      </c>
+      <c r="K3" s="4">
+        <f>D3-J3</f>
+        <v>4000</v>
+      </c>
+      <c r="L3" s="4">
+        <f>K3+J3</f>
+        <v>16000</v>
+      </c>
+      <c r="M3" s="4">
+        <f>N3-J3</f>
+        <v>12000</v>
+      </c>
+      <c r="N3" s="4">
+        <f>J3*2</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>49.99</v>
       </c>
@@ -519,8 +561,27 @@
         <f t="shared" ref="H4:H7" si="4">(D4-C4)/C4</f>
         <v>0.23774754950990187</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J4" s="4">
+        <v>6000</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:K8" si="5">D4-J4</f>
+        <v>1500</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" ref="L4:L8" si="6">K4+J4</f>
+        <v>7500</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" ref="M4:M8" si="7">N4-J4</f>
+        <v>6000</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" ref="N4:N8" si="8">J4*2</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>24.99</v>
       </c>
@@ -547,8 +608,27 @@
         <f t="shared" si="4"/>
         <v>0.15546218487394961</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="6"/>
+        <v>3500</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="8"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>9.99</v>
       </c>
@@ -575,8 +655,27 @@
         <f t="shared" si="4"/>
         <v>7.3573573573573706E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J6" s="4">
+        <v>1200</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="6"/>
+        <v>1300</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="7"/>
+        <v>1200</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="8"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>4.99</v>
       </c>
@@ -603,8 +702,27 @@
         <f t="shared" si="4"/>
         <v>4.1583166332665289E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J7" s="4">
+        <v>600</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="6"/>
+        <v>630</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="7"/>
+        <v>600</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="8"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>0.99</v>
       </c>
@@ -622,8 +740,27 @@
         <f>B8/D8*1000</f>
         <v>8.25</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J8" s="4">
+        <v>120</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="8"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -646,10 +783,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>99.99</v>
       </c>
@@ -661,15 +798,15 @@
         <v>21000</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13:E17" si="5">D13/B13</f>
+        <f t="shared" ref="E13:E17" si="9">D13/B13</f>
         <v>210.02100210021004</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" ref="F13:F16" si="6">B13/D13*1000</f>
+        <f t="shared" ref="F13:F16" si="10">B13/D13*1000</f>
         <v>4.7614285714285707</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" ref="G13:G16" si="7">($F$18-F13)/$F$18</f>
+        <f t="shared" ref="G13:G16" si="11">($F$18-F13)/$F$18</f>
         <v>0.23047619047619058</v>
       </c>
       <c r="H13" s="6">
@@ -677,7 +814,7 @@
         <v>0.29950495049504949</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>49.99</v>
       </c>
@@ -689,23 +826,23 @@
         <v>10000</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>200.04000800160031</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4.9989999999999997</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.19208080808080813</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" ref="H14:H17" si="8">(D14-C14)/C14</f>
+        <f t="shared" ref="H14:H17" si="12">(D14-C14)/C14</f>
         <v>0.2377475495099019</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>24.99</v>
       </c>
@@ -717,23 +854,23 @@
         <v>4600</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>184.07362945178073</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5.4326086956521733</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.1220026350461134</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.13895558223289323</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>9.99</v>
       </c>
@@ -745,19 +882,19 @@
         <v>1750</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>175.17517517517518</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5.7085714285714282</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7.7402597402597459E-2</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8.3896396396396275E-2</v>
       </c>
     </row>
@@ -773,7 +910,7 @@
         <v>840</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>168.33667334669337</v>
       </c>
       <c r="F17" s="3">
@@ -785,7 +922,7 @@
         <v>3.9923039923039888E-2</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.158316633266524E-2</v>
       </c>
     </row>
@@ -836,22 +973,22 @@
         <v>99.99</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" ref="C24:C27" si="9">$C$29*B24/$B$29</f>
+        <f t="shared" ref="C24:C27" si="13">$C$29*B24/$B$29</f>
         <v>8080</v>
       </c>
       <c r="D24" s="4">
         <v>14000</v>
       </c>
       <c r="E24" s="1">
-        <f>D24/B24</f>
+        <f t="shared" ref="E24:E29" si="14">D24/B24</f>
         <v>140.01400140014002</v>
       </c>
       <c r="F24" s="3">
-        <f>B24/D24*1000</f>
+        <f t="shared" ref="F24:F29" si="15">B24/D24*1000</f>
         <v>7.142142857142856</v>
       </c>
       <c r="G24" s="2">
-        <f>($F$29-F24)/$F$29</f>
+        <f t="shared" ref="G24:G29" si="16">($F$29-F24)/$F$29</f>
         <v>0.42285714285714293</v>
       </c>
       <c r="H24" s="6">
@@ -864,26 +1001,26 @@
         <v>49.99</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4039.5959595959598</v>
       </c>
       <c r="D25" s="4">
         <v>6500</v>
       </c>
       <c r="E25" s="1">
-        <f>D25/B25</f>
+        <f t="shared" si="14"/>
         <v>130.02600520104019</v>
       </c>
       <c r="F25" s="3">
-        <f>B25/D25*1000</f>
+        <f t="shared" si="15"/>
         <v>7.6907692307692308</v>
       </c>
       <c r="G25" s="2">
-        <f>($F$29-F25)/$F$29</f>
+        <f t="shared" si="16"/>
         <v>0.37852369852369855</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" ref="H25:H28" si="10">(D25-C25)/C25</f>
+        <f t="shared" ref="H25:H28" si="17">(D25-C25)/C25</f>
         <v>0.6090718143628725</v>
       </c>
     </row>
@@ -892,26 +1029,26 @@
         <v>19.989999999999998</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1615.3535353535351</v>
       </c>
       <c r="D26" s="4">
         <v>2500</v>
       </c>
       <c r="E26" s="1">
-        <f>D26/B26</f>
+        <f t="shared" si="14"/>
         <v>125.06253126563283</v>
       </c>
       <c r="F26" s="3">
-        <f>B26/D26*1000</f>
+        <f t="shared" si="15"/>
         <v>7.9959999999999996</v>
       </c>
       <c r="G26" s="2">
-        <f>($F$29-F26)/$F$29</f>
+        <f t="shared" si="16"/>
         <v>0.35385858585858587</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.5476488244122063</v>
       </c>
     </row>
@@ -920,26 +1057,26 @@
         <v>9.99</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>807.27272727272737</v>
       </c>
       <c r="D27" s="4">
         <v>1200</v>
       </c>
       <c r="E27" s="1">
-        <f>D27/B27</f>
+        <f t="shared" si="14"/>
         <v>120.12012012012012</v>
       </c>
       <c r="F27" s="3">
-        <f>B27/D27*1000</f>
+        <f t="shared" si="15"/>
         <v>8.3250000000000011</v>
       </c>
       <c r="G27" s="2">
-        <f>($F$29-F27)/$F$29</f>
+        <f t="shared" si="16"/>
         <v>0.32727272727272716</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.48648648648648629</v>
       </c>
     </row>
@@ -955,19 +1092,19 @@
         <v>500</v>
       </c>
       <c r="E28" s="1">
-        <f>D28/B28</f>
+        <f t="shared" si="14"/>
         <v>100.20040080160321</v>
       </c>
       <c r="F28" s="3">
-        <f>B28/D28*1000</f>
+        <f t="shared" si="15"/>
         <v>9.98</v>
       </c>
       <c r="G28" s="2">
-        <f>($F$29-F28)/$F$29</f>
+        <f t="shared" si="16"/>
         <v>0.1935353535353535</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.23997995991983956</v>
       </c>
     </row>
@@ -982,15 +1119,15 @@
         <v>80</v>
       </c>
       <c r="E29" s="1">
-        <f>D29/B29</f>
+        <f t="shared" si="14"/>
         <v>80.808080808080803</v>
       </c>
       <c r="F29" s="3">
-        <f>B29/D29*1000</f>
+        <f t="shared" si="15"/>
         <v>12.375</v>
       </c>
       <c r="G29" s="2">
-        <f>($F$29-F29)/$F$29</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -1011,11 +1148,11 @@
         <v>3000</v>
       </c>
       <c r="E33" s="1">
-        <f>D33/B33</f>
+        <f t="shared" ref="E33:E38" si="18">D33/B33</f>
         <v>30.003000300030006</v>
       </c>
       <c r="F33" s="3">
-        <f>B33/D33*1000</f>
+        <f t="shared" ref="F33:F38" si="19">B33/D33*1000</f>
         <v>33.33</v>
       </c>
       <c r="G33" s="2">
@@ -1032,15 +1169,15 @@
         <v>1400</v>
       </c>
       <c r="E34" s="1">
-        <f>D34/B34</f>
+        <f t="shared" si="18"/>
         <v>28.005601120224043</v>
       </c>
       <c r="F34" s="3">
-        <f>B34/D34*1000</f>
+        <f t="shared" si="19"/>
         <v>35.707142857142863</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" ref="G34:G38" si="11">($F$38-F34)/$F$38</f>
+        <f t="shared" ref="G34:G38" si="20">($F$38-F34)/$F$38</f>
         <v>0.14016244624940266</v>
       </c>
     </row>
@@ -1053,15 +1190,15 @@
         <v>500</v>
       </c>
       <c r="E35" s="1">
-        <f>D35/B35</f>
+        <f t="shared" si="18"/>
         <v>25.012506253126567</v>
       </c>
       <c r="F35" s="3">
-        <f>B35/D35*1000</f>
+        <f t="shared" si="19"/>
         <v>39.979999999999997</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>3.7270903010033538E-2</v>
       </c>
     </row>
@@ -1074,15 +1211,15 @@
         <v>250</v>
       </c>
       <c r="E36" s="1">
-        <f>D36/B36</f>
+        <f t="shared" si="18"/>
         <v>25.025025025025023</v>
       </c>
       <c r="F36" s="3">
-        <f>B36/D36*1000</f>
+        <f t="shared" si="19"/>
         <v>39.96</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>3.7752508361204008E-2</v>
       </c>
     </row>
@@ -1095,15 +1232,15 @@
         <v>120</v>
       </c>
       <c r="E37" s="1">
-        <f>D37/B37</f>
+        <f t="shared" si="18"/>
         <v>24.048096192384769</v>
       </c>
       <c r="F37" s="3">
-        <f>B37/D37*1000</f>
+        <f t="shared" si="19"/>
         <v>41.583333333333336</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>-1.3377926421405063E-3</v>
       </c>
     </row>
@@ -1116,15 +1253,15 @@
         <v>72</v>
       </c>
       <c r="E38" s="1">
-        <f>D38/B38</f>
+        <f t="shared" si="18"/>
         <v>24.080267558528426</v>
       </c>
       <c r="F38" s="3">
-        <f>B38/D38*1000</f>
+        <f t="shared" si="19"/>
         <v>41.527777777777779</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -1178,7 +1315,7 @@
         <v>13.855321507760532</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" ref="G43:G46" si="12">($F$46-F43)/$F$46</f>
+        <f t="shared" ref="G43:G46" si="21">($F$46-F43)/$F$46</f>
         <v>7.6311899482631187E-2</v>
       </c>
     </row>
@@ -1199,7 +1336,7 @@
         <v>13.905380333951761</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>7.297464440321591E-2</v>
       </c>
     </row>
@@ -1220,7 +1357,7 @@
         <v>15.121212121212123</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-8.0808080808081918E-3</v>
       </c>
     </row>
@@ -1241,7 +1378,7 @@
         <v>15</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -1266,11 +1403,11 @@
         <v>1500000</v>
       </c>
       <c r="E50" s="1">
-        <f>D50/B50</f>
+        <f t="shared" ref="E50:E55" si="22">D50/B50</f>
         <v>15001.500150015003</v>
       </c>
       <c r="F50" s="3">
-        <f>B50/D50*1000</f>
+        <f t="shared" ref="F50:F55" si="23">B50/D50*1000</f>
         <v>6.6659999999999997E-2</v>
       </c>
       <c r="G50" s="2">
@@ -1287,15 +1424,15 @@
         <v>600000</v>
       </c>
       <c r="E51" s="1">
-        <f>D51/B51</f>
+        <f t="shared" si="22"/>
         <v>12002.400480096019</v>
       </c>
       <c r="F51" s="3">
-        <f>B51/D51*1000</f>
+        <f t="shared" si="23"/>
         <v>8.3316666666666664E-2</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" ref="G51:G55" si="13">($F$55-F51)/$F$55</f>
+        <f t="shared" ref="G51:G55" si="24">($F$55-F51)/$F$55</f>
         <v>0.49758793969849247</v>
       </c>
     </row>
@@ -1308,15 +1445,15 @@
         <v>192000</v>
       </c>
       <c r="E52" s="1">
-        <f>D52/B52</f>
+        <f t="shared" si="22"/>
         <v>9604.8024012006008</v>
       </c>
       <c r="F52" s="3">
-        <f>B52/D52*1000</f>
+        <f t="shared" si="23"/>
         <v>0.10411458333333333</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>0.37217336683417085</v>
       </c>
     </row>
@@ -1329,15 +1466,15 @@
         <v>84000</v>
       </c>
       <c r="E53" s="1">
-        <f>D53/B53</f>
+        <f t="shared" si="22"/>
         <v>8408.4084084084079</v>
       </c>
       <c r="F53" s="3">
-        <f>B53/D53*1000</f>
+        <f t="shared" si="23"/>
         <v>0.11892857142857144</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>0.28284278535534813</v>
       </c>
     </row>
@@ -1350,15 +1487,15 @@
         <v>36000</v>
       </c>
       <c r="E54" s="1">
-        <f>D54/B54</f>
+        <f t="shared" si="22"/>
         <v>7214.4288577154302</v>
       </c>
       <c r="F54" s="3">
-        <f>B54/D54*1000</f>
+        <f t="shared" si="23"/>
         <v>0.1386111111111111</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>0.16415410385259638</v>
       </c>
     </row>
@@ -1371,15 +1508,15 @@
         <v>12000</v>
       </c>
       <c r="E55" s="1">
-        <f>D55/B55</f>
+        <f t="shared" si="22"/>
         <v>6030.150753768844</v>
       </c>
       <c r="F55" s="3">
-        <f>B55/D55*1000</f>
+        <f t="shared" si="23"/>
         <v>0.16583333333333333</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -1430,7 +1567,7 @@
         <v>8.6189655172413797</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" ref="G60:G63" si="14">($F$63-F60)/$F$63</f>
+        <f t="shared" ref="G60:G63" si="25">($F$63-F60)/$F$63</f>
         <v>0.15192142906502662</v>
       </c>
     </row>
@@ -1451,7 +1588,7 @@
         <v>9.1278538812785381</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0.10184844574994752</v>
       </c>
     </row>
@@ -1472,7 +1609,7 @@
         <v>9.6990291262135937</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>4.564663307196911E-2</v>
       </c>
     </row>
@@ -1493,7 +1630,7 @@
         <v>10.162932790224033</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
